--- a/13 Days Final Spring,Spring Boot TOC.xlsx
+++ b/13 Days Final Spring,Spring Boot TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\CoForge\Jan 2023 Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF962D-31E4-43E3-B34E-FC99DEC8B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0DBE0A-E01A-415F-BAA9-45B4EA9E162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4216C500-7F51-4B2F-A76E-A681CFEA0E0B}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -305,9 +297,6 @@
     <t>Distributed Tracing using Zipkin and Sleuth</t>
   </si>
   <si>
-    <t>Circuit Breaker Pattern using Resilence 4J</t>
-  </si>
-  <si>
     <t>Reactive Web Programming</t>
   </si>
   <si>
@@ -381,6 +370,9 @@
   </si>
   <si>
     <t>https://download.springsource.com/release/STS4/4.16.1.RELEASE/dist/e4.25/spring-tool-suite-4-4.16.1.RELEASE-e4.25.0-win32.win32.x86_64.self-extracting.jar</t>
+  </si>
+  <si>
+    <t>Circuit Breaker Pattern using Resilence 4J(hystrix)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,9 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -479,6 +474,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88217-3BD3-4CB0-BE44-4D2342A44832}">
   <dimension ref="A2:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -810,128 +812,128 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1098,7 +1100,7 @@
     </row>
     <row r="54" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1131,7 @@
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,22 +1148,22 @@
       <c r="A65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1169,7 +1171,7 @@
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1177,7 +1179,7 @@
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1283,9 +1285,9 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1295,7 +1297,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1311,15 +1313,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="2" t="s">
-        <v>90</v>
+      <c r="B98" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,43 +1329,44 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B105" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
